--- a/ZR_Eingangswelle.xlsx
+++ b/ZR_Eingangswelle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moritz\Desktop\Getriebebeleg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85BB65A-3F65-4BD0-B8EE-2D5F9B1050BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40031A0-3B95-496E-99AD-18368B3D4217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{926A924D-D7AC-4402-ACA1-82EB8F8A49D7}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Tabelle1!$G$14</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Tabelle1!$C$21</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -30,7 +30,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Tabelle1!$P$24</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Tabelle1!$P$16</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -41,7 +41,7 @@
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>Zahnradberechnung</t>
   </si>
@@ -1645,7 +1645,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1670,6 +1669,7 @@
     <xf numFmtId="165" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1992,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF91128-5F25-4258-87F5-E92EC2383C9A}">
   <dimension ref="A2:XEW75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,7 +2014,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2024,13 +2024,13 @@
       </c>
     </row>
     <row r="6" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="G7" s="6">
         <f>C10/C9</f>
-        <v>2.9523809523809526</v>
+        <v>3.0370370370370372</v>
       </c>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="G8" s="5">
         <f>(G7-C11)*100/C11</f>
-        <v>-1.5873015873015817</v>
+        <v>1.2345679012345734</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
@@ -2094,7 +2094,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9" s="7"/>
       <c r="G9" s="5"/>
@@ -2104,7 +2104,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D10" s="7"/>
       <c r="F10" s="2" t="s">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="G10" s="6">
         <f>POWER((5*C6*G6*1000*COS(C12*PI()/180)*COS(C12*PI()/180)*C13)/(C9*C9*C17*C15),1/3)</f>
-        <v>3.3361811669016221</v>
-      </c>
-      <c r="H10" s="29" t="s">
+        <v>2.5765533147111195</v>
+      </c>
+      <c r="H10" s="28" t="s">
         <v>20</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="O10" s="1" t="s">
         <v>103</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>14</v>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G12" s="5">
         <f>(75*POWER((C6*1000*G6*(1+G7)*C14*C14)/(C17*G7*C16*C16),1/3))/C9</f>
-        <v>2.9850957699120859</v>
+        <v>2.1055098428055565</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>20</v>
@@ -2181,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="7"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="17">
-        <v>3.5</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="31" t="s">
@@ -2195,73 +2195,73 @@
       </c>
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19" t="s">
+      <c r="N14" s="17"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19" t="s">
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S14" s="19"/>
-      <c r="T14" s="20"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="19"/>
     </row>
     <row r="15" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="7">
-        <v>315</v>
+        <v>430</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>98</v>
       </c>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="23"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="22"/>
     </row>
     <row r="16" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="7">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>98</v>
       </c>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
-      <c r="N16" s="21" t="s">
+      <c r="N16" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="27">
+      <c r="O16" s="21"/>
+      <c r="P16" s="26">
         <f>G54</f>
-        <v>1.8600084410042221</v>
-      </c>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27">
+        <v>1.7528818283690293</v>
+      </c>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26">
         <f>G57</f>
-        <v>1.9918571406197114</v>
-      </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="23"/>
+        <v>1.7528818283690293</v>
+      </c>
+      <c r="S16" s="21"/>
+      <c r="T16" s="22"/>
     </row>
     <row r="17" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
@@ -2274,13 +2274,13 @@
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="23"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="22"/>
     </row>
     <row r="18" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
@@ -2292,63 +2292,62 @@
       <c r="D18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="21" t="s">
+      <c r="N18" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="O18" s="22"/>
+      <c r="O18" s="21"/>
       <c r="P18" s="32">
         <f>G61</f>
-        <v>1.2453865783919527</v>
+        <v>1.3817375168115675</v>
       </c>
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="23"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="22"/>
     </row>
     <row r="19" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C19" s="7">
-        <f>210000</f>
         <v>210000</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="23"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="22"/>
     </row>
     <row r="20" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>210000</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="28">
+      <c r="O20" s="21"/>
+      <c r="P20" s="27">
         <f>(2*G6*1000)/C39</f>
-        <v>10594.374156693582</v>
-      </c>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28">
+        <v>11594.244810036149</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27">
         <f>(2*G6*1000)/G39</f>
-        <v>3588.4170530736333</v>
-      </c>
-      <c r="S20" s="22"/>
-      <c r="T20" s="23" t="s">
+        <v>3817.6171935484886</v>
+      </c>
+      <c r="S20" s="21"/>
+      <c r="T20" s="22" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2357,18 +2356,18 @@
         <v>51</v>
       </c>
       <c r="C21" s="7">
-        <v>42.5</v>
+        <v>45.5</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="23"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="22"/>
     </row>
     <row r="22" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B22" s="4" t="s">
@@ -2376,37 +2375,37 @@
       </c>
       <c r="C22" s="1">
         <f>C17*C34</f>
-        <v>45.655679556084664</v>
+        <v>41.124777781372671</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N22" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="O22" s="22"/>
-      <c r="P22" s="28">
+      <c r="O22" s="21"/>
+      <c r="P22" s="27">
         <f>P20*TAN(C28*PI()/180)</f>
-        <v>3911.5216202537758</v>
-      </c>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28">
+        <v>4692.9324437318292</v>
+      </c>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27">
         <f>R20*TAN(C28*PI()/180)</f>
-        <v>1324.8702262149889</v>
-      </c>
-      <c r="S22" s="22"/>
-      <c r="T22" s="23" t="s">
+        <v>1545.2338534238952</v>
+      </c>
+      <c r="S22" s="21"/>
+      <c r="T22" s="22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="23"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="22"/>
     </row>
     <row r="24" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B24" s="1" t="s">
@@ -2414,7 +2413,7 @@
       </c>
       <c r="C24" s="1">
         <f>((C25)/(2))*(C9+C10)</f>
-        <v>150.37386520456457</v>
+        <v>138.35187586943275</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
@@ -2423,26 +2422,26 @@
         <v>25</v>
       </c>
       <c r="G24" s="7">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="21" t="s">
+      <c r="N24" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="O24" s="22"/>
-      <c r="P24" s="28">
+      <c r="O24" s="21"/>
+      <c r="P24" s="27">
         <f>P20*TAN(C12*PI()/180)</f>
-        <v>2838.753999599202</v>
-      </c>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28">
+        <v>2044.3781809484642</v>
+      </c>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27">
         <f>R20*TAN(C12*PI()/180)</f>
-        <v>961.51345147714915</v>
-      </c>
-      <c r="S24" s="22"/>
-      <c r="T24" s="23" t="s">
+        <v>673.14891323912855</v>
+      </c>
+      <c r="S24" s="21"/>
+      <c r="T24" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2452,18 +2451,18 @@
       </c>
       <c r="C25" s="1">
         <f>G14/COS(C12*PI()/180)</f>
-        <v>3.6234666314352908</v>
+        <v>2.5385665297143625</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="24"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="26"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="25"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
@@ -2471,7 +2470,7 @@
       </c>
       <c r="C26" s="2">
         <f>(C9+C10)*((TAN(C28*PI()/180)-(C28*PI()/180))-(TAN(C27*PI()/180)-(C27*PI()/180)))/(2*TAN(C18*PI()/180))</f>
-        <v>-0.10587551213477699</v>
+        <v>0.6868930141106947</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>20</v>
@@ -2483,7 +2482,7 @@
       </c>
       <c r="C27" s="1">
         <f>ATAN((TAN(C18*PI()/180))/COS(C12*PI()/180))*180/PI()</f>
-        <v>20.646896487046472</v>
+        <v>20.283559454529712</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -2495,7 +2494,7 @@
       </c>
       <c r="C28" s="1">
         <f>ACOS(COS(C27*PI()/180)*C24/G24)*180/PI()</f>
-        <v>20.26452049324735</v>
+        <v>22.03632812515713</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -2507,7 +2506,7 @@
       </c>
       <c r="C29" s="1">
         <f>((G24-C24)/G14)-C26</f>
-        <v>-9.4311774081344557E-4</v>
+        <v>-2.7643361883793127E-2</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
@@ -2525,7 +2524,7 @@
       </c>
       <c r="L31" s="1">
         <f>0.5*C26+(0.5-(C26)/(2))*(LOG10(C10/C9))/(C10*C9/100)</f>
-        <v>-3.2970316057724783E-2</v>
+        <v>0.34685794546921533</v>
       </c>
     </row>
     <row r="32" spans="2:20" ht="16.5" x14ac:dyDescent="0.45">
@@ -2534,14 +2533,14 @@
       </c>
       <c r="C32" s="1">
         <f>C9</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="1">
         <f>C10</f>
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
@@ -2550,14 +2549,14 @@
       </c>
       <c r="C33" s="1">
         <f>C32/POWER(COS(C12*PI()/180),3)</f>
-        <v>23.301718984660958</v>
+        <v>28.268931094666662</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G33" s="1">
         <f>G32/POWER(COS(C12*PI()/180),3)</f>
-        <v>68.795551288046639</v>
+        <v>85.85379073195061</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
@@ -2566,7 +2565,7 @@
       </c>
       <c r="C34" s="1">
         <f>C25*C32</f>
-        <v>76.092799260141106</v>
+        <v>68.54129630228779</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>20</v>
@@ -2576,7 +2575,7 @@
       </c>
       <c r="G34" s="1">
         <f>G32*C25</f>
-        <v>224.65493114898803</v>
+        <v>208.16245543657772</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>20</v>
@@ -2587,20 +2586,15 @@
         <v>38</v>
       </c>
       <c r="C35" s="7">
-        <v>0.26519999999999999</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>0.38419999999999999</v>
+      </c>
+      <c r="D35" s="7"/>
       <c r="F35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G35" s="1">
         <f>C26-C35</f>
-        <v>-0.37107551213477696</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>20</v>
+        <v>0.30269301411069471</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="16.5" x14ac:dyDescent="0.45">
@@ -2609,7 +2603,7 @@
       </c>
       <c r="C36" s="1">
         <f>C34+2*G14*(1+C35+C29)</f>
-        <v>84.942597435955406</v>
+        <v>75.324079492868819</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
@@ -2619,7 +2613,7 @@
       </c>
       <c r="G36" s="1">
         <f>G34+2*G14*(1+G35+C29)</f>
-        <v>229.05080073985889</v>
+        <v>214.53770369771223</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>20</v>
@@ -2631,7 +2625,7 @@
       </c>
       <c r="C37" s="1">
         <f>C34*COS(C27*PI()/180)</f>
-        <v>71.205453156524484</v>
+        <v>64.290944025135104</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
@@ -2641,7 +2635,7 @@
       </c>
       <c r="G37" s="1">
         <f>G34*COS(C27*PI()/180)</f>
-        <v>210.22562360497705</v>
+        <v>195.25397815041029</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>20</v>
@@ -2653,7 +2647,7 @@
       </c>
       <c r="C38" s="1">
         <f>C34-2*G14*(1.25-C35)</f>
-        <v>69.1991992601411</v>
+        <v>64.212296302287797</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>20</v>
@@ -2663,7 +2657,7 @@
       </c>
       <c r="G38" s="1">
         <f>G34-2*G14*(1.25-G35)</f>
-        <v>213.30740256404459</v>
+        <v>203.4259205071312</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>20</v>
@@ -2675,7 +2669,7 @@
       </c>
       <c r="C39" s="1">
         <f>C34*(COS(C27*PI()/180))/(COS(C28*PI()/180))</f>
-        <v>75.903614457831338</v>
+        <v>69.357798165137623</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
@@ -2685,7 +2679,7 @@
       </c>
       <c r="G39" s="1">
         <f>G34*(COS(C27*PI()/180))/(COS(C28*PI()/180))</f>
-        <v>224.09638554216869</v>
+        <v>210.64220183486239</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>20</v>
@@ -2697,14 +2691,14 @@
       </c>
       <c r="C41" s="1">
         <f>(0.5*(SQRT(C36*C36-C37*C37)+SQRT(G36*G36-G37*G37))-G24*SIN(C28*PI()/180))/(PI()*C25*COS(C27*PI()/180))</f>
-        <v>1.5651326268955874</v>
-      </c>
-      <c r="D41" s="11" t="s">
+        <v>1.543215664576749</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="30">
         <f>(C41-1)</f>
-        <v>0.56513262689558741</v>
+        <v>0.54321566457674897</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>48</v>
@@ -2716,7 +2710,7 @@
       </c>
       <c r="C43" s="1">
         <f>(C21*SIN(C12*PI()/180))/(PI()*G14)</f>
-        <v>1.0003851667209092</v>
+        <v>1.0059855563791353</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>53</v>
@@ -2728,7 +2722,7 @@
       </c>
       <c r="C45" s="1" cm="1">
         <f t="array" ref="C45">C41+_xlfn.ANCHORARRAY(C43)</f>
-        <v>2.5655177936164968</v>
+        <v>2.5492012209558843</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.35">
@@ -2742,7 +2736,7 @@
       </c>
       <c r="C49" s="1">
         <f>(2*G6)/(C34/1000)</f>
-        <v>10568.034022017006</v>
+        <v>11732.361872251902</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>58</v>
@@ -2754,7 +2748,7 @@
       </c>
       <c r="C52" s="1">
         <f>2*C15</f>
-        <v>630</v>
+        <v>860</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
@@ -2769,17 +2763,17 @@
       </c>
       <c r="C54" s="1">
         <f>C55*C6*C66*C69*C70</f>
-        <v>338.7081403027729</v>
+        <v>490.62063744490285</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="14">
         <f>C52/C54</f>
-        <v>1.8600084410042221</v>
+        <v>1.7528818283690293</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="s">
@@ -2792,19 +2786,19 @@
       </c>
       <c r="C55" s="1">
         <f>(C49)/(C21*G14)*C72*C74*C75</f>
-        <v>184.29321268240943</v>
+        <v>270.03222712447916</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="14"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:1017 1025:2041 2049:3065 3073:4089 4097:5113 5121:6137 6145:7161 7169:8185 8193:9209 9217:10233 10241:11257 11265:12281 12289:13305 13313:14329 14337:15353 15361:16377" x14ac:dyDescent="0.35">
-      <c r="F56" s="16"/>
-      <c r="G56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="14"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
@@ -2814,17 +2808,17 @@
       </c>
       <c r="C57" s="1">
         <f>C58*C6*C66*C69*C70</f>
-        <v>316.28774330873591</v>
+        <v>490.62063744490285</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F57" s="16" t="s">
+      <c r="F57" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="G57" s="15">
+      <c r="G57" s="14">
         <f>C52/C57</f>
-        <v>1.9918571406197114</v>
+        <v>1.7528818283690293</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57" s="2" t="s">
@@ -2837,20 +2831,20 @@
       </c>
       <c r="C58" s="1">
         <f>(C49)/(C21*G14)*C73*C74*C75</f>
-        <v>172.09413477435393</v>
+        <v>270.03222712447916</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F58" s="16"/>
-      <c r="G58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:1017 1025:2041 2049:3065 3073:4089 4097:5113 5121:6137 6145:7161 7169:8185 8193:9209 9217:10233 10241:11257 11265:12281 12289:13305 13313:14329 14337:15353 15361:16377" x14ac:dyDescent="0.35">
       <c r="B59" s="4"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="14"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
@@ -2861,13 +2855,13 @@
       </c>
       <c r="C60" s="1">
         <f>C16</f>
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="14"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="Q60" s="4"/>
@@ -4920,12 +4914,12 @@
     <row r="61" spans="1:1017 1025:2041 2049:3065 3073:4089 4097:5113 5121:6137 6145:7161 7169:8185 8193:9209 9217:10233 10241:11257 11265:12281 12289:13305 13313:14329 14337:15353 15361:16377" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="F61" s="16" t="s">
+      <c r="F61" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <f>C60/C62</f>
-        <v>1.2453865783919527</v>
+        <v>1.3817375168115675</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
@@ -6983,7 +6977,7 @@
       </c>
       <c r="C62" s="1">
         <f>C63*SQRT(C6*C66*L70*G66)</f>
-        <v>1043.8525856594379</v>
+        <v>1085.5896881640222</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>19</v>
@@ -9044,7 +9038,7 @@
       </c>
       <c r="C63" s="1">
         <f>L66*L67*L68*L69*SQRT((C49*(G7+1))/(C34*C21*G7))</f>
-        <v>769.98280118302205</v>
+        <v>805.37955822486776</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>19</v>
@@ -11105,31 +11099,31 @@
       </c>
       <c r="C66" s="1">
         <f>1+(C67/(C6*C49/C21)+C68)*C9*((C34/1000*PI()*(C8)/(60))/(100))*SQRT((G7*G7)/(1+G7*G7))</f>
-        <v>1.0293941794313866</v>
+        <v>1.0331926056511629</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G66" s="1">
         <f>1+(10*G67)/(G74)</f>
-        <v>1.6230873762704157</v>
+        <v>1.5986604819148444</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>90</v>
       </c>
       <c r="L66" s="1">
         <f>SQRT((2*COS(C12*PI()/180)*COS(C28*PI()/180))/(POWER(COS(C27*PI()/180),2)*SIN(C28*PI()/180)))</f>
-        <v>2.4444546186513847</v>
+        <v>2.3517563221864441</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="12">
+      <c r="C67" s="11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F67" s="1" t="s">
@@ -11151,13 +11145,13 @@
       </c>
     </row>
     <row r="68" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="11">
         <v>8.6999999999999994E-3</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F68" s="1" t="s">
@@ -11175,29 +11169,29 @@
       </c>
       <c r="L68" s="1">
         <f>IF(C12=0,SQRT((4-C41)/(3)),IF(C43&gt;=1,SQRT(1/C41),SQRT((4-C41)/(3)*(1-C43)+(C43/C41))))</f>
-        <v>0.79932689796812995</v>
+        <v>0.80498296229838329</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="11">
         <v>1</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <v>8</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="H69" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I69" s="12" t="str">
+      <c r="I69" s="11" t="str">
         <f>I71</f>
         <v xml:space="preserve"> II 10/9</v>
       </c>
@@ -11206,7 +11200,7 @@
       </c>
       <c r="L69" s="1">
         <f>SQRT(COS(C12*PI()/180))</f>
-        <v>0.98281525542141857</v>
+        <v>0.99237480470445638</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
@@ -11215,7 +11209,7 @@
       </c>
       <c r="C70" s="1">
         <f>IF(G66&lt;=2,G66,2)</f>
-        <v>1.6230873762704157</v>
+        <v>1.5986604819148444</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>73</v>
@@ -11227,38 +11221,38 @@
       <c r="H70" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K70" s="12" t="s">
+      <c r="K70" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="11">
         <v>1</v>
       </c>
-      <c r="M70" s="12" t="s">
+      <c r="M70" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G71" s="11">
         <v>10</v>
       </c>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="12">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="D72" s="12" t="s">
+      <c r="C72" s="11">
+        <v>3.95</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>64</v>
       </c>
       <c r="F72" s="1" t="s">
@@ -11273,13 +11267,13 @@
       </c>
     </row>
     <row r="73" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="12">
+      <c r="C73" s="11">
         <v>3.95</v>
       </c>
-      <c r="D73" s="12" t="str">
+      <c r="D73" s="11" t="str">
         <f>D72</f>
         <v>II 10/10</v>
       </c>
@@ -11291,14 +11285,14 @@
       </c>
       <c r="C74" s="1">
         <f>0.25+0.75*(POWER(COS(ATAN(TAN(C12*PI()/180)*COS(C27*PI()/180))),2)/(C41))</f>
-        <v>0.70084776413233885</v>
+        <v>0.72305780602703407</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G74" s="1">
         <f>C66*C6*C49/C21</f>
-        <v>281.56564661945623</v>
+        <v>293.05425245181823</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>79</v>
@@ -11310,7 +11304,7 @@
       </c>
       <c r="C75" s="1">
         <f>1-(IF(C43&gt;1,1,C43))*(IF(C12&gt;30,30,C12))/(120)</f>
-        <v>0.875</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
   </sheetData>
